--- a/UserInterface/Rest/src/main/build/licenseInformation/LICENSES.xlsx
+++ b/UserInterface/Rest/src/main/build/licenseInformation/LICENSES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="209">
   <si>
     <t>Maven information</t>
   </si>
@@ -164,33 +164,6 @@
     <t>jackson-module-parameter-names</t>
   </si>
   <si>
-    <t>com.h2database</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>2.2.224</t>
-  </si>
-  <si>
-    <t>MPL 2.0</t>
-  </si>
-  <si>
-    <t>https://www.mozilla.org/en-US/MPL/2.0/</t>
-  </si>
-  <si>
-    <t>mpl 2.0 - 2.0.html</t>
-  </si>
-  <si>
-    <t>EPL 1.0</t>
-  </si>
-  <si>
-    <t>https://opensource.org/licenses/eclipse-1.0.php</t>
-  </si>
-  <si>
-    <t>epl 1.0 - eclipse-1.0.html</t>
-  </si>
-  <si>
     <t>com.sun.istack</t>
   </si>
   <si>
@@ -314,6 +287,18 @@
     <t>jakarta.transaction-api</t>
   </si>
   <si>
+    <t>jakarta.validation</t>
+  </si>
+  <si>
+    <t>jakarta.validation-api</t>
+  </si>
+  <si>
+    <t>3.0.2</t>
+  </si>
+  <si>
+    <t>Apache License 2.0</t>
+  </si>
+  <si>
     <t>jakarta.xml.bind</t>
   </si>
   <si>
@@ -407,6 +392,24 @@
     <t>eclipse public license - v 2.0 - epl-2.0.txt</t>
   </si>
   <si>
+    <t>org.checkerframework</t>
+  </si>
+  <si>
+    <t>checker-qual</t>
+  </si>
+  <si>
+    <t>3.31.0</t>
+  </si>
+  <si>
+    <t>The MIT License</t>
+  </si>
+  <si>
+    <t>http://opensource.org/licenses/MIT</t>
+  </si>
+  <si>
+    <t>the mit license - mit.html</t>
+  </si>
+  <si>
     <t>org.eclipse.angus</t>
   </si>
   <si>
@@ -467,6 +470,15 @@
     <t>See discussion at https://hibernate.org/community/license/ for more details.</t>
   </si>
   <si>
+    <t>org.hibernate.validator</t>
+  </si>
+  <si>
+    <t>hibernate-validator</t>
+  </si>
+  <si>
+    <t>8.0.1.Final</t>
+  </si>
+  <si>
     <t>org.jboss.logging</t>
   </si>
   <si>
@@ -476,15 +488,33 @@
     <t>3.5.3.Final</t>
   </si>
   <si>
-    <t>Apache License 2.0</t>
-  </si>
-  <si>
     <t>https://repository.jboss.org/licenses/apache-2.0.txt</t>
   </si>
   <si>
     <t>apache license 2.0 - apache-2.0.txt</t>
   </si>
   <si>
+    <t>org.postgresql</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>42.6.2</t>
+  </si>
+  <si>
+    <t>BSD-2-Clause</t>
+  </si>
+  <si>
+    <t>https://jdbc.postgresql.org/about/license.html</t>
+  </si>
+  <si>
+    <t>BSD-2-Clause, copyright PostgreSQL Global Development Group</t>
+  </si>
+  <si>
+    <t>bsd-2-clause - license.html</t>
+  </si>
+  <si>
     <t>org.slf4j</t>
   </si>
   <si>
@@ -582,6 +612,9 @@
   </si>
   <si>
     <t>spring-boot-starter-tomcat</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-validation</t>
   </si>
   <si>
     <t>spring-boot-starter-web</t>
@@ -968,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1433,188 +1466,188 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s" s="8">
+      <c r="C16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H16" t="s" s="7">
+      <c r="D16" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I16" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s" s="8">
+      <c r="E16" t="s" s="0">
         <v>58</v>
       </c>
+      <c r="G16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s" s="8">
         <v>59</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="H17" t="s" s="6">
+      <c r="E18" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s" s="8">
         <v>63</v>
       </c>
-      <c r="I17" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s" s="0">
+      <c r="D19" t="s" s="8">
         <v>64</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="s" s="8">
+      <c r="E19" t="s" s="8">
         <v>65</v>
       </c>
-      <c r="D18" t="s" s="8">
+      <c r="G19" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="E18" t="s" s="8">
+      <c r="D20" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G18" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K18" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="s" s="0">
+      <c r="E20" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="G20" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="H20" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s" s="8">
         <v>70</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s" s="8">
+      <c r="D21" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="E20" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J20" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K20" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="s" s="0">
+      <c r="E21" t="s" s="8">
         <v>72</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="G21" t="s" s="8">
         <v>73</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="H21" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="I21" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K21" t="s" s="0">
-        <v>38</v>
+      <c r="I21" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="s" s="8">
+        <v>6</v>
+      </c>
       <c r="C22" t="s" s="8">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s" s="8">
         <v>76</v>
       </c>
-      <c r="E22" t="s" s="8">
+      <c r="H22" t="s" s="7">
         <v>77</v>
       </c>
-      <c r="G22" t="s" s="8">
+      <c r="I22" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s" s="8">
         <v>78</v>
-      </c>
-      <c r="H22" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="I22" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K22" t="s" s="8">
-        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -1628,1303 +1661,1390 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="8">
         <v>82</v>
       </c>
-      <c r="H23" t="s" s="6">
+      <c r="D24" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="I23" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K23" t="s" s="0">
+      <c r="E24" t="s" s="8">
         <v>84</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="G24" t="s" s="0">
+      <c r="G24" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="H24" t="s" s="6">
+      <c r="H24" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="I24" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K24" t="s" s="0">
+      <c r="K24" t="s" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s" s="8">
         <v>87</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="s" s="8">
+      <c r="H25" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="D25" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s" s="8">
-        <v>6</v>
-      </c>
       <c r="K25" t="s" s="8">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="6">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="0">
         <v>37</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="G27" t="s" s="0">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="6">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="0">
         <v>37</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="H28" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K28" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s" s="8">
         <v>98</v>
       </c>
-      <c r="D28" t="s" s="8">
+      <c r="D30" t="s" s="8">
         <v>99</v>
       </c>
-      <c r="E28" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="G28" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="I28" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K28" t="s" s="8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="H29" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="I29" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K29" t="s" s="8">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="s" s="0">
+      <c r="E30" t="s" s="8">
         <v>100</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="G30" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s" s="8">
         <v>101</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="K30" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="G30" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="H30" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="I30" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J30" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K30" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="s" s="8">
+      <c r="D31" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="D31" t="s" s="8">
+      <c r="E31" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="E31" t="s" s="8">
+      <c r="G31" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="G31" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H31" t="s" s="7">
+      <c r="H31" t="s" s="6">
+        <v>106</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="8">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s" s="8">
+        <v>110</v>
+      </c>
+      <c r="G32" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="I31" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J31" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="K31" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="G32" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="H32" t="s" s="6">
+      <c r="I32" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="I32" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J32" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K32" t="s" s="0">
+      <c r="D33" t="s" s="0">
         <v>112</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="s" s="8">
+      <c r="E33" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="D33" t="s" s="8">
+      <c r="G33" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s" s="8">
         <v>114</v>
       </c>
-      <c r="E33" t="s" s="8">
+      <c r="E34" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="G34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="G33" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="I33" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J33" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K33" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="s" s="0">
+      <c r="D35" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="E35" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="G35" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s" s="8">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s" s="8">
         <v>118</v>
       </c>
-      <c r="G34" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="I34" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J34" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K34" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="D35" t="s" s="8">
+      <c r="E36" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="E35" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="G35" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="I35" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J35" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K35" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="s" s="0">
+      <c r="E37" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D38" t="s" s="8">
         <v>121</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E38" t="s" s="8">
         <v>122</v>
       </c>
-      <c r="G36" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H36" t="s" s="6">
+      <c r="G38" t="s" s="8">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s" s="6">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s" s="8">
+        <v>134</v>
+      </c>
+      <c r="G40" t="s" s="8">
+        <v>69</v>
+      </c>
+      <c r="H40" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K40" t="s" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s" s="8">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="G42" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K42" t="s" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H43" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s" s="8">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s" s="8">
+        <v>142</v>
+      </c>
+      <c r="G44" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="H44" t="s" s="7">
+        <v>144</v>
+      </c>
+      <c r="I44" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J44" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="K44" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H45" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="8">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="E46" t="s" s="8">
+        <v>154</v>
+      </c>
+      <c r="G46" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="H46" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="I36" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J36" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K36" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="D37" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="E37" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="G37" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s" s="7">
+      <c r="I46" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J46" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K46" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="H47" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s" s="8">
+        <v>160</v>
+      </c>
+      <c r="D48" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s" s="8">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="H48" t="s" s="7">
+        <v>164</v>
+      </c>
+      <c r="I48" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s" s="8">
+        <v>165</v>
+      </c>
+      <c r="K48" t="s" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="H49" t="s" s="6">
+        <v>171</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="D50" t="s" s="8">
+        <v>173</v>
+      </c>
+      <c r="E50" t="s" s="8">
+        <v>169</v>
+      </c>
+      <c r="G50" t="s" s="8">
+        <v>170</v>
+      </c>
+      <c r="H50" t="s" s="7">
+        <v>171</v>
+      </c>
+      <c r="I50" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K50" t="s" s="8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H51" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K51" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s" s="8">
+        <v>178</v>
+      </c>
+      <c r="E52" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G52" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I52" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K52" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H53" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s" s="8">
+        <v>180</v>
+      </c>
+      <c r="E54" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G54" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H54" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I54" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H55" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D56" t="s" s="8">
+        <v>182</v>
+      </c>
+      <c r="E56" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G56" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I56" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K57" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s" s="8">
+        <v>184</v>
+      </c>
+      <c r="E58" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G58" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I58" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K58" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H59" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s" s="8">
+        <v>186</v>
+      </c>
+      <c r="E60" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G60" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H60" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I60" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J60" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K60" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s" s="8">
+        <v>188</v>
+      </c>
+      <c r="E62" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G62" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I62" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K62" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H63" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K63" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D64" t="s" s="8">
+        <v>192</v>
+      </c>
+      <c r="E64" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G64" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H64" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I64" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J64" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s" s="8">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G66" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I66" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J66" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K67" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D68" t="s" s="8">
+        <v>196</v>
+      </c>
+      <c r="E68" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G68" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I68" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J68" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K69" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s" s="8">
+        <v>198</v>
+      </c>
+      <c r="E70" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G70" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H70" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I70" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J70" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K70" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D72" t="s" s="8">
+        <v>200</v>
+      </c>
+      <c r="E72" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G72" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I72" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J72" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H73" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="s" s="8">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="E74" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G74" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H74" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I74" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J74" t="s" s="8">
+        <v>204</v>
+      </c>
+      <c r="K74" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H75" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="K75" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="s" s="8">
+        <v>206</v>
+      </c>
+      <c r="D76" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="E76" t="s" s="8">
+        <v>208</v>
+      </c>
+      <c r="G76" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H76" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="I37" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J37" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K37" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="G38" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="I38" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J38" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K38" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="s" s="8">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="G39" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="H39" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="I39" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J39" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K39" t="s" s="8">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="I40" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J40" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K40" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="s" s="8">
-        <v>134</v>
-      </c>
-      <c r="D41" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="E41" t="s" s="8">
-        <v>136</v>
-      </c>
-      <c r="G41" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="I41" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J41" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K41" t="s" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="G42" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="H42" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="I42" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K42" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="s" s="8">
-        <v>134</v>
-      </c>
-      <c r="D43" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="E43" t="s" s="8">
-        <v>136</v>
-      </c>
-      <c r="G43" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="H43" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="I43" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J43" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K43" t="s" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="s" s="0">
-        <v>139</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="H44" t="s" s="6">
-        <v>143</v>
-      </c>
-      <c r="I44" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J44" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="K44" t="s" s="0">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="D45" t="s" s="8">
-        <v>147</v>
-      </c>
-      <c r="E45" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="G45" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="H45" t="s" s="7">
-        <v>149</v>
-      </c>
-      <c r="I45" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J45" t="s" s="8">
-        <v>150</v>
-      </c>
-      <c r="K45" t="s" s="8">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="G46" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="H46" t="s" s="6">
-        <v>155</v>
-      </c>
-      <c r="I46" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J46" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K46" t="s" s="0">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="D47" t="s" s="8">
-        <v>158</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>159</v>
-      </c>
-      <c r="G47" t="s" s="8">
-        <v>160</v>
-      </c>
-      <c r="H47" t="s" s="7">
-        <v>161</v>
-      </c>
-      <c r="I47" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K47" t="s" s="8">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="G48" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="H48" t="s" s="6">
-        <v>161</v>
-      </c>
-      <c r="I48" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J48" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K48" t="s" s="0">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="D49" t="s" s="8">
-        <v>165</v>
-      </c>
-      <c r="E49" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="G49" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H49" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I49" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J49" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K49" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="E50" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="G50" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H50" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I50" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J50" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K50" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="D51" t="s" s="8">
-        <v>169</v>
-      </c>
-      <c r="E51" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="G51" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H51" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I51" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J51" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K51" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D52" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="E52" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="G52" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H52" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I52" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J52" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K52" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="D53" t="s" s="8">
-        <v>171</v>
-      </c>
-      <c r="E53" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="G53" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H53" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I53" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J53" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K53" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="E54" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="G54" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H54" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I54" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J54" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K54" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="D55" t="s" s="8">
-        <v>173</v>
-      </c>
-      <c r="E55" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="G55" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H55" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I55" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J55" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K55" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D56" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="E56" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="G56" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H56" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I56" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J56" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K56" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="D57" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="E57" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="G57" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H57" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I57" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J57" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K57" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D58" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="E58" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="G58" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H58" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I58" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J58" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K58" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="D59" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="E59" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="G59" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H59" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I59" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J59" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K59" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="D60" t="s" s="0">
-        <v>178</v>
-      </c>
-      <c r="E60" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="G60" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H60" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I60" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J60" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K60" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="D61" t="s" s="8">
-        <v>180</v>
-      </c>
-      <c r="E61" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G61" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H61" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I61" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J61" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K61" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D62" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="E62" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="G62" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H62" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I62" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J62" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K62" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="D63" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="E63" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G63" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H63" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I63" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J63" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K63" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D64" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="E64" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="G64" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H64" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I64" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J64" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K64" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="D65" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="E65" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G65" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H65" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I65" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J65" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K65" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D66" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="E66" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="G66" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H66" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I66" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J66" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K66" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="D67" t="s" s="8">
-        <v>187</v>
-      </c>
-      <c r="E67" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G67" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H67" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I67" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J67" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K67" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D68" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="E68" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="G68" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H68" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I68" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J68" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K68" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="D69" t="s" s="8">
-        <v>189</v>
-      </c>
-      <c r="E69" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G69" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H69" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I69" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J69" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K69" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="D70" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="E70" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="G70" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H70" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I70" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J70" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K70" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" t="s" s="8">
-        <v>191</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>192</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G71" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I71" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J71" t="s" s="8">
-        <v>193</v>
-      </c>
-      <c r="K71" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="D72" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="E72" t="s" s="0">
-        <v>181</v>
-      </c>
-      <c r="G72" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H72" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="I72" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J72" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="K72" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="D73" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="E73" t="s" s="8">
-        <v>197</v>
-      </c>
-      <c r="G73" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H73" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I73" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J73" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K73" t="s" s="8">
+      <c r="I76" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s" s="8">
         <v>38</v>
       </c>
     </row>
@@ -3007,6 +3127,9 @@
     <hyperlink ref="H71" r:id="rId68"/>
     <hyperlink ref="H72" r:id="rId69"/>
     <hyperlink ref="H73" r:id="rId70"/>
+    <hyperlink ref="H74" r:id="rId71"/>
+    <hyperlink ref="H75" r:id="rId72"/>
+    <hyperlink ref="H76" r:id="rId73"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/UserInterface/Rest/src/main/build/licenseInformation/LICENSES.xlsx
+++ b/UserInterface/Rest/src/main/build/licenseInformation/LICENSES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="209">
   <si>
     <t>Maven information</t>
   </si>
@@ -162,33 +162,6 @@
   </si>
   <si>
     <t>jackson-module-parameter-names</t>
-  </si>
-  <si>
-    <t>com.h2database</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>2.2.224</t>
-  </si>
-  <si>
-    <t>MPL 2.0</t>
-  </si>
-  <si>
-    <t>https://www.mozilla.org/en-US/MPL/2.0/</t>
-  </si>
-  <si>
-    <t>mpl 2.0 - 2.0.html</t>
-  </si>
-  <si>
-    <t>EPL 1.0</t>
-  </si>
-  <si>
-    <t>https://opensource.org/licenses/eclipse-1.0.php</t>
-  </si>
-  <si>
-    <t>epl 1.0 - eclipse-1.0.html</t>
   </si>
   <si>
     <t>com.sun.istack</t>
@@ -1028,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1493,188 +1466,188 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s" s="8">
+      <c r="C16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H16" t="s" s="7">
+      <c r="D16" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I16" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s" s="8">
+      <c r="E16" t="s" s="0">
         <v>58</v>
       </c>
+      <c r="G16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s" s="8">
         <v>59</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="H17" t="s" s="6">
+      <c r="E18" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s" s="8">
         <v>63</v>
       </c>
-      <c r="I17" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s" s="0">
+      <c r="D19" t="s" s="8">
         <v>64</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="s" s="8">
+      <c r="E19" t="s" s="8">
         <v>65</v>
       </c>
-      <c r="D18" t="s" s="8">
+      <c r="G19" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="E18" t="s" s="8">
+      <c r="D20" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="G18" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K18" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="s" s="0">
+      <c r="E20" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="G20" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="H20" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s" s="8">
         <v>70</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s" s="8">
+      <c r="D21" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="E20" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J20" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K20" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="s" s="0">
+      <c r="E21" t="s" s="8">
         <v>72</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="G21" t="s" s="8">
         <v>73</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="H21" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="I21" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K21" t="s" s="0">
-        <v>38</v>
+      <c r="I21" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="s" s="8">
+        <v>6</v>
+      </c>
       <c r="C22" t="s" s="8">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s" s="8">
         <v>76</v>
       </c>
-      <c r="E22" t="s" s="8">
+      <c r="H22" t="s" s="7">
         <v>77</v>
       </c>
-      <c r="G22" t="s" s="8">
+      <c r="I22" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s" s="8">
         <v>78</v>
-      </c>
-      <c r="H22" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="I22" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K22" t="s" s="8">
-        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -1688,1433 +1661,1390 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="8">
         <v>82</v>
       </c>
-      <c r="H23" t="s" s="6">
+      <c r="D24" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="I23" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K23" t="s" s="0">
+      <c r="E24" t="s" s="8">
         <v>84</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="G24" t="s" s="0">
+      <c r="G24" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="H24" t="s" s="6">
+      <c r="H24" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="I24" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K24" t="s" s="0">
+      <c r="K24" t="s" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s" s="8">
         <v>87</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="s" s="8">
+      <c r="H25" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="D25" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s" s="8">
-        <v>6</v>
-      </c>
       <c r="K25" t="s" s="8">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="6">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="0">
         <v>37</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="G27" t="s" s="0">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="6">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="0">
         <v>37</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="H28" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K28" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s" s="8">
         <v>98</v>
       </c>
-      <c r="D28" t="s" s="8">
+      <c r="D30" t="s" s="8">
         <v>99</v>
       </c>
-      <c r="E28" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="G28" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="I28" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K28" t="s" s="8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="H29" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="I29" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J29" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K29" t="s" s="8">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="s" s="0">
+      <c r="E30" t="s" s="8">
         <v>100</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="G30" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s" s="8">
         <v>101</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="K30" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="D31" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="H30" t="s" s="6">
+      <c r="E31" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="H31" t="s" s="6">
+        <v>106</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="8">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s" s="8">
+        <v>110</v>
+      </c>
+      <c r="G32" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s" s="8">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="G34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="I30" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K30" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="E31" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="G31" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="H31" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="I31" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J31" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K31" t="s" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="G32" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H32" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="I32" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J32" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="K32" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="D33" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="E33" t="s" s="8">
-        <v>113</v>
-      </c>
-      <c r="G33" t="s" s="8">
-        <v>114</v>
-      </c>
-      <c r="H33" t="s" s="7">
+      <c r="I35" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s" s="8">
         <v>115</v>
       </c>
-      <c r="I33" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J33" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K33" t="s" s="8">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="s" s="0">
+      <c r="D36" t="s" s="8">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s" s="8">
         <v>117</v>
       </c>
-      <c r="D34" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="E34" t="s" s="0">
+      <c r="G36" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="G34" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="I34" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J34" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K34" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="s" s="8">
+      <c r="E37" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="D35" t="s" s="8">
+      <c r="D38" t="s" s="8">
         <v>121</v>
       </c>
-      <c r="E35" t="s" s="8">
+      <c r="E38" t="s" s="8">
         <v>122</v>
       </c>
-      <c r="G35" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="I35" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J35" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K35" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="G38" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="E36" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="G36" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H36" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="I36" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J36" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K36" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="s" s="8">
+      <c r="H38" t="s" s="7">
         <v>124</v>
       </c>
-      <c r="D37" t="s" s="8">
+      <c r="I38" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s" s="8">
         <v>125</v>
       </c>
-      <c r="E37" t="s" s="8">
+    </row>
+    <row r="39">
+      <c r="C39" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="G37" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s" s="7">
+      <c r="D39" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s" s="6">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s" s="8">
+        <v>134</v>
+      </c>
+      <c r="G40" t="s" s="8">
+        <v>69</v>
+      </c>
+      <c r="H40" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K40" t="s" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s" s="8">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="G42" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K42" t="s" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H43" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s" s="8">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s" s="8">
+        <v>142</v>
+      </c>
+      <c r="G44" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="H44" t="s" s="7">
+        <v>144</v>
+      </c>
+      <c r="I44" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J44" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="K44" t="s" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H45" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="8">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="E46" t="s" s="8">
+        <v>154</v>
+      </c>
+      <c r="G46" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="H46" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="I37" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J37" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K37" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="G38" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s" s="6">
+      <c r="I46" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J46" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K46" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="H47" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s" s="8">
+        <v>160</v>
+      </c>
+      <c r="D48" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s" s="8">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="H48" t="s" s="7">
+        <v>164</v>
+      </c>
+      <c r="I48" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s" s="8">
+        <v>165</v>
+      </c>
+      <c r="K48" t="s" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="H49" t="s" s="6">
+        <v>171</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="D50" t="s" s="8">
+        <v>173</v>
+      </c>
+      <c r="E50" t="s" s="8">
+        <v>169</v>
+      </c>
+      <c r="G50" t="s" s="8">
+        <v>170</v>
+      </c>
+      <c r="H50" t="s" s="7">
+        <v>171</v>
+      </c>
+      <c r="I50" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K50" t="s" s="8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H51" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K51" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s" s="8">
+        <v>178</v>
+      </c>
+      <c r="E52" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G52" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I52" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K52" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H53" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s" s="8">
+        <v>180</v>
+      </c>
+      <c r="E54" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G54" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H54" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I54" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H55" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D56" t="s" s="8">
+        <v>182</v>
+      </c>
+      <c r="E56" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G56" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I56" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K57" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s" s="8">
+        <v>184</v>
+      </c>
+      <c r="E58" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G58" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I58" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K58" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H59" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s" s="8">
+        <v>186</v>
+      </c>
+      <c r="E60" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G60" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H60" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I60" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J60" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K60" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s" s="8">
+        <v>188</v>
+      </c>
+      <c r="E62" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="G62" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I62" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K62" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H63" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K63" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D64" t="s" s="8">
+        <v>192</v>
+      </c>
+      <c r="E64" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G64" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H64" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I64" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J64" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s" s="8">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G66" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I66" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J66" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K67" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D68" t="s" s="8">
+        <v>196</v>
+      </c>
+      <c r="E68" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G68" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I68" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J68" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K69" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s" s="8">
+        <v>198</v>
+      </c>
+      <c r="E70" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G70" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H70" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I70" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J70" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K70" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D72" t="s" s="8">
+        <v>200</v>
+      </c>
+      <c r="E72" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G72" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I72" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J72" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H73" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="s" s="8">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="E74" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="G74" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H74" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="I74" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="J74" t="s" s="8">
+        <v>204</v>
+      </c>
+      <c r="K74" t="s" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H75" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="K75" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="s" s="8">
+        <v>206</v>
+      </c>
+      <c r="D76" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="E76" t="s" s="8">
+        <v>208</v>
+      </c>
+      <c r="G76" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="H76" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="I38" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J38" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K38" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="s" s="8">
-        <v>124</v>
-      </c>
-      <c r="D39" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="G39" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H39" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I39" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J39" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K39" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="H40" t="s" s="6">
-        <v>133</v>
-      </c>
-      <c r="I40" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J40" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K40" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="D41" t="s" s="8">
-        <v>136</v>
-      </c>
-      <c r="E41" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="G41" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="H41" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="I41" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J41" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K41" t="s" s="8">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="G42" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="I42" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K42" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="s" s="8">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s" s="8">
-        <v>145</v>
-      </c>
-      <c r="E43" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="G43" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="H43" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="I43" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J43" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K43" t="s" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="H44" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="I44" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J44" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K44" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="s" s="8">
-        <v>144</v>
-      </c>
-      <c r="D45" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="E45" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="G45" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="H45" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="I45" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J45" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K45" t="s" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="G46" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="H46" t="s" s="6">
-        <v>153</v>
-      </c>
-      <c r="I46" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J46" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="K46" t="s" s="0">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="s" s="8">
-        <v>156</v>
-      </c>
-      <c r="D47" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>158</v>
-      </c>
-      <c r="G47" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="H47" t="s" s="7">
-        <v>159</v>
-      </c>
-      <c r="I47" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s" s="8">
-        <v>160</v>
-      </c>
-      <c r="K47" t="s" s="8">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="E48" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="G48" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="H48" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="I48" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J48" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K48" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="D49" t="s" s="8">
-        <v>165</v>
-      </c>
-      <c r="E49" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="G49" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="H49" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="I49" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J49" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K49" t="s" s="8">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="E50" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="G50" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="H50" t="s" s="6">
-        <v>173</v>
-      </c>
-      <c r="I50" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J50" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="K50" t="s" s="0">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="s" s="8">
-        <v>176</v>
-      </c>
-      <c r="D51" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="E51" t="s" s="8">
-        <v>178</v>
-      </c>
-      <c r="G51" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="H51" t="s" s="7">
-        <v>180</v>
-      </c>
-      <c r="I51" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J51" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K51" t="s" s="8">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="D52" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="E52" t="s" s="0">
-        <v>178</v>
-      </c>
-      <c r="G52" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="H52" t="s" s="6">
-        <v>180</v>
-      </c>
-      <c r="I52" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J52" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K52" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="D53" t="s" s="8">
-        <v>184</v>
-      </c>
-      <c r="E53" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="G53" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H53" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I53" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J53" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K53" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="E54" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G54" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H54" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I54" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J54" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K54" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="D55" t="s" s="8">
-        <v>188</v>
-      </c>
-      <c r="E55" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="G55" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H55" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I55" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J55" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K55" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="D56" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="E56" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G56" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H56" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I56" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J56" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K56" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="D57" t="s" s="8">
-        <v>190</v>
-      </c>
-      <c r="E57" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="G57" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H57" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I57" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J57" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K57" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="D58" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="E58" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G58" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H58" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I58" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J58" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K58" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="D59" t="s" s="8">
-        <v>192</v>
-      </c>
-      <c r="E59" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="G59" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H59" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I59" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J59" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K59" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="D60" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="E60" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G60" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H60" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I60" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J60" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K60" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="D61" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="E61" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="G61" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H61" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I61" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J61" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K61" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="D62" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="E62" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G62" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H62" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I62" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J62" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K62" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="D63" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="E63" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="G63" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H63" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I63" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="J63" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K63" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="D64" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="E64" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G64" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H64" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I64" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J64" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K64" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="D65" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="E65" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="G65" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H65" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I65" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J65" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K65" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="D66" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="E66" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="G66" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H66" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I66" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J66" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K66" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="D67" t="s" s="8">
-        <v>202</v>
-      </c>
-      <c r="E67" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="G67" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H67" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I67" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J67" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K67" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="D68" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="E68" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="G68" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H68" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I68" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J68" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K68" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="D69" t="s" s="8">
-        <v>204</v>
-      </c>
-      <c r="E69" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="G69" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H69" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I69" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J69" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K69" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="D70" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="E70" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="G70" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H70" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I70" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J70" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K70" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>206</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="G71" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I71" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J71" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K71" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="D72" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="E72" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="G72" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H72" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I72" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J72" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K72" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="D73" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="E73" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="G73" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H73" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I73" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J73" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K73" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="C74" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="D74" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="E74" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="G74" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H74" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I74" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J74" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K74" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="C75" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="D75" t="s" s="8">
-        <v>210</v>
-      </c>
-      <c r="E75" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="G75" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H75" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I75" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J75" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="K75" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="C76" t="s" s="0">
-        <v>211</v>
-      </c>
-      <c r="D76" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="E76" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="G76" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H76" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="I76" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J76" t="s" s="0">
-        <v>213</v>
-      </c>
-      <c r="K76" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="C77" t="s" s="8">
-        <v>211</v>
-      </c>
-      <c r="D77" t="s" s="8">
-        <v>214</v>
-      </c>
-      <c r="E77" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="G77" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="H77" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="I77" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="J77" t="s" s="8">
-        <v>213</v>
-      </c>
-      <c r="K77" t="s" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="C78" t="s" s="0">
-        <v>215</v>
-      </c>
-      <c r="D78" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="E78" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="G78" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H78" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="I78" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="J78" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K78" t="s" s="0">
+      <c r="I76" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s" s="8">
         <v>38</v>
       </c>
     </row>
@@ -3200,8 +3130,6 @@
     <hyperlink ref="H74" r:id="rId71"/>
     <hyperlink ref="H75" r:id="rId72"/>
     <hyperlink ref="H76" r:id="rId73"/>
-    <hyperlink ref="H77" r:id="rId74"/>
-    <hyperlink ref="H78" r:id="rId75"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
